--- a/xlsx/决策支持系统_intext.xlsx
+++ b/xlsx/决策支持系统_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E</t>
   </si>
   <si>
-    <t>人類</t>
+    <t>人类</t>
   </si>
   <si>
     <t>政策_政策_管理_决策支持系统</t>
@@ -35,25 +35,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E7%AD%96</t>
   </si>
   <si>
-    <t>決策</t>
+    <t>决策</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>資訊系統</t>
+    <t>资讯系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%85%A7%E5%9F%BA%E7%BE%8E%E9%9A%86%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>卡內基美隆大學</t>
+    <t>卡内基美隆大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>麻省理工學院</t>
+    <t>麻省理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%B7%A5%E6%99%BA%E8%83%BD</t>
@@ -65,31 +65,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%96%99%E5%BA%AB</t>
   </si>
   <si>
-    <t>資料庫</t>
+    <t>资料库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98</t>
   </si>
   <si>
-    <t>知識</t>
+    <t>知识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9A%8E%E4%B8%BB%E7%AE%A1%E8%B3%87%E8%A8%8A%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>高階主管資訊系統</t>
+    <t>高阶主管资讯系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E9%AB%94%E6%B1%BA%E7%AD%96%E6%94%AF%E6%8C%81%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>群體決策支持系統</t>
+    <t>群体决策支持系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%96%99%E5%80%89%E5%84%B2</t>
   </si>
   <si>
-    <t>資料倉儲</t>
+    <t>资料仓储</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/OLAP</t>
@@ -101,37 +101,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E8%B3%87%E8%A8%8A%E7%B6%B2</t>
   </si>
   <si>
-    <t>全球資訊網</t>
+    <t>全球资讯网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>網路</t>
+    <t>网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>網際網路</t>
+    <t>网际网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%A9%9F%E4%BA%92%E5%8B%95</t>
   </si>
   <si>
-    <t>人機互動</t>
+    <t>人机互动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>軟體工程</t>
+    <t>软体工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%96%99%E5%BA%AB%E7%AE%A1%E7%90%86%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>資料庫管理系統</t>
+    <t>资料库管理系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%BF%E7%94%A8%E8%80%85%E4%BB%8B%E9%9D%A2</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E5%BA%AB</t>
   </si>
   <si>
-    <t>知識庫</t>
+    <t>知识库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%A1%E6%93%AC</t>
   </si>
   <si>
-    <t>模擬</t>
+    <t>模拟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E4%BB%B6</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%A6%E7%AE%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>試算表</t>
+    <t>试算表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%8F%E5%89%87</t>
   </si>
   <si>
-    <t>規則</t>
+    <t>规则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E6%85%A7</t>
@@ -185,13 +185,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%87%E5%88%A4</t>
   </si>
   <si>
-    <t>談判</t>
+    <t>谈判</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E7%AD%96%E8%AB%96</t>
   </si>
   <si>
-    <t>決策論</t>
+    <t>决策论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E6%8D%AE%E5%BA%93</t>
@@ -209,13 +209,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>資訊管理</t>
+    <t>资讯管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%8B%99%E6%99%BA%E8%83%BD</t>
   </si>
   <si>
-    <t>商務智能</t>
+    <t>商务智能</t>
   </si>
 </sst>
 </file>
